--- a/REGULAR/SP-VMO/MANALO, ELIADA.xlsx
+++ b/REGULAR/SP-VMO/MANALO, ELIADA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="227">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1411,7 +1411,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1454,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1518,7 +1518,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1578,7 +1578,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,7 +1644,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1707,7 +1707,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,7 +1805,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1864,7 +1864,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1929,7 +1929,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +1972,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2047,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2233,7 +2233,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2299,7 +2299,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,7 +2357,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2423,7 +2423,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,7 +2479,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2554,7 +2554,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2597,7 +2597,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2663,7 +2663,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2719,7 +2719,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2815,7 +2815,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K408" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K409" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3162,12 +3162,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K408"/>
+  <dimension ref="A2:K409"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A329" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A350" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="E332" sqref="E332"/>
+      <selection pane="bottomLeft" activeCell="K365" sqref="K365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3340,7 +3340,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11169,10 +11169,10 @@
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B365" s="20"/>
+      <c r="A365" s="40"/>
+      <c r="B365" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C365" s="13"/>
       <c r="D365" s="39"/>
       <c r="E365" s="9"/>
@@ -11181,14 +11181,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H365" s="39"/>
+      <c r="H365" s="39">
+        <v>1</v>
+      </c>
       <c r="I365" s="9"/>
       <c r="J365" s="11"/>
-      <c r="K365" s="20"/>
+      <c r="K365" s="48">
+        <v>45128</v>
+      </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -11206,7 +11210,7 @@
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -11224,7 +11228,7 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -11242,7 +11246,7 @@
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -11260,7 +11264,7 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -11278,7 +11282,7 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -11296,7 +11300,7 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -11314,7 +11318,7 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -11332,7 +11336,7 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -11350,7 +11354,7 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -11368,7 +11372,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -11386,7 +11390,7 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -11404,7 +11408,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -11422,7 +11426,7 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -11440,7 +11444,7 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -11458,7 +11462,7 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -11476,7 +11480,7 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -11494,7 +11498,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -11512,7 +11516,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -11530,7 +11534,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -11548,7 +11552,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -11566,7 +11570,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -11584,7 +11588,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -11602,7 +11606,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -11620,7 +11624,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -11638,7 +11642,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -11656,7 +11660,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -11674,7 +11678,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -11692,7 +11696,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -11710,7 +11714,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -11728,7 +11732,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -11746,7 +11750,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -11764,7 +11768,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -11782,7 +11786,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -11800,7 +11804,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -11818,7 +11822,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -11836,7 +11840,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -11854,7 +11858,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -11872,7 +11876,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -11890,7 +11894,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -11908,7 +11912,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -11926,7 +11930,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -11944,21 +11948,39 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
-      <c r="D408" s="42"/>
+      <c r="D408" s="39"/>
       <c r="E408" s="9"/>
-      <c r="F408" s="15"/>
-      <c r="G408" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H408" s="42"/>
+      <c r="F408" s="20"/>
+      <c r="G408" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H408" s="39"/>
       <c r="I408" s="9"/>
-      <c r="J408" s="12"/>
-      <c r="K408" s="15"/>
+      <c r="J408" s="11"/>
+      <c r="K408" s="20"/>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A409" s="40">
+        <v>46447</v>
+      </c>
+      <c r="B409" s="20"/>
+      <c r="C409" s="13"/>
+      <c r="D409" s="42"/>
+      <c r="E409" s="9"/>
+      <c r="F409" s="15"/>
+      <c r="G409" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H409" s="42"/>
+      <c r="I409" s="9"/>
+      <c r="J409" s="12"/>
+      <c r="K409" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/SP-VMO/MANALO, ELIADA.xlsx
+++ b/REGULAR/SP-VMO/MANALO, ELIADA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="230">
   <si>
     <t>PERIOD</t>
   </si>
@@ -715,6 +715,15 @@
   </si>
   <si>
     <t>UT(0-1-31)</t>
+  </si>
+  <si>
+    <t>8/10,11/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>9/20,21/2023</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1420,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1463,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1518,7 +1527,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1578,7 +1587,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,7 +1653,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1707,7 +1716,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,7 +1814,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1864,7 +1873,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1929,7 +1938,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +1981,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2056,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2233,7 +2242,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2299,7 +2308,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,7 +2366,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2423,7 +2432,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,7 +2488,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2554,7 +2563,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2597,7 +2606,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2663,7 +2672,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2719,7 +2728,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2815,7 +2824,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K409" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K410" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3162,12 +3171,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K409"/>
+  <dimension ref="A2:K410"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A350" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="K365" sqref="K365"/>
+      <selection pane="bottomLeft" activeCell="K368" sqref="K368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3330,7 +3339,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>60.578000000000031</v>
+        <v>59.828000000000031</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3340,7 +3349,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>74</v>
+        <v>72.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11129,13 +11138,15 @@
       <c r="B363" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C363" s="13"/>
+      <c r="C363" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D363" s="39"/>
       <c r="E363" s="9"/>
       <c r="F363" s="20"/>
-      <c r="G363" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G363" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H363" s="39">
         <v>1</v>
@@ -11194,7 +11205,9 @@
       <c r="A366" s="40">
         <v>45139</v>
       </c>
-      <c r="B366" s="20"/>
+      <c r="B366" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C366" s="13"/>
       <c r="D366" s="39"/>
       <c r="E366" s="9"/>
@@ -11203,16 +11216,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H366" s="39"/>
+      <c r="H366" s="39">
+        <v>1</v>
+      </c>
       <c r="I366" s="9"/>
       <c r="J366" s="11"/>
-      <c r="K366" s="20"/>
+      <c r="K366" s="48">
+        <v>45142</v>
+      </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B367" s="20"/>
+      <c r="A367" s="40"/>
+      <c r="B367" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C367" s="13"/>
       <c r="D367" s="39"/>
       <c r="E367" s="9"/>
@@ -11221,18 +11238,28 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H367" s="39"/>
-      <c r="I367" s="9"/>
+      <c r="H367" s="39">
+        <v>2</v>
+      </c>
+      <c r="I367" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="J367" s="11"/>
-      <c r="K367" s="20"/>
+      <c r="K367" s="48" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B368" s="20"/>
+        <v>45170</v>
+      </c>
+      <c r="B368" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C368" s="13"/>
-      <c r="D368" s="39"/>
+      <c r="D368" s="39">
+        <v>2</v>
+      </c>
       <c r="E368" s="9"/>
       <c r="F368" s="20"/>
       <c r="G368" s="13" t="str">
@@ -11242,11 +11269,13 @@
       <c r="H368" s="39"/>
       <c r="I368" s="9"/>
       <c r="J368" s="11"/>
-      <c r="K368" s="20"/>
+      <c r="K368" s="20" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -11264,7 +11293,7 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -11282,7 +11311,7 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -11300,7 +11329,7 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -11318,7 +11347,7 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -11336,7 +11365,7 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -11354,7 +11383,7 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -11372,7 +11401,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -11390,7 +11419,7 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -11408,7 +11437,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -11426,7 +11455,7 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -11444,7 +11473,7 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -11462,7 +11491,7 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -11480,7 +11509,7 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -11498,7 +11527,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -11516,7 +11545,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -11534,7 +11563,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -11552,7 +11581,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -11570,7 +11599,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -11588,7 +11617,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -11606,7 +11635,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -11624,7 +11653,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -11642,7 +11671,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -11660,7 +11689,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -11678,7 +11707,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -11696,7 +11725,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -11714,7 +11743,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -11732,7 +11761,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -11750,7 +11779,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -11768,7 +11797,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -11786,7 +11815,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -11804,7 +11833,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -11822,7 +11851,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -11840,7 +11869,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -11858,7 +11887,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -11876,7 +11905,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -11894,7 +11923,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -11912,7 +11941,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -11930,7 +11959,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -11948,7 +11977,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -11966,21 +11995,39 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
-      <c r="D409" s="42"/>
+      <c r="D409" s="39"/>
       <c r="E409" s="9"/>
-      <c r="F409" s="15"/>
-      <c r="G409" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H409" s="42"/>
+      <c r="F409" s="20"/>
+      <c r="G409" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H409" s="39"/>
       <c r="I409" s="9"/>
-      <c r="J409" s="12"/>
-      <c r="K409" s="15"/>
+      <c r="J409" s="11"/>
+      <c r="K409" s="20"/>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A410" s="40">
+        <v>46447</v>
+      </c>
+      <c r="B410" s="20"/>
+      <c r="C410" s="13"/>
+      <c r="D410" s="42"/>
+      <c r="E410" s="9"/>
+      <c r="F410" s="15"/>
+      <c r="G410" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H410" s="42"/>
+      <c r="I410" s="9"/>
+      <c r="J410" s="12"/>
+      <c r="K410" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/SP-VMO/MANALO, ELIADA.xlsx
+++ b/REGULAR/SP-VMO/MANALO, ELIADA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\SP-VMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\SP-VMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E22711C-331C-4C20-9488-2B104C41FD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="235">
   <si>
     <t>PERIOD</t>
   </si>
@@ -737,12 +736,15 @@
   </si>
   <si>
     <t>12/27-29/2023</t>
+  </si>
+  <si>
+    <t>1/17,19/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1433,7 +1435,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1478,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,7 +1542,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,7 +1602,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1666,7 +1668,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,7 +1731,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1829,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1886,7 +1888,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1951,7 +1953,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1994,7 +1996,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2071,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,7 +2257,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,7 +2323,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,7 +2381,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2445,7 +2447,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2501,7 +2503,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2576,7 +2578,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,7 +2621,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2685,7 +2687,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2743,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2820,7 +2822,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2837,25 +2839,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K413" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K413" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3162,7 +3164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3172,7 +3174,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3180,34 +3182,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A362" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A362" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B374" sqref="B374"/>
+      <selection pane="bottomLeft" activeCell="F378" sqref="F378"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3228,7 +3230,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3248,7 +3250,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3270,7 +3272,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3278,7 +3280,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3291,7 +3293,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3308,7 +3310,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3343,7 +3345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3352,7 +3354,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.828000000000031</v>
+        <v>61.078000000000031</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3362,12 +3364,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>72.25</v>
+        <v>71.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>76</v>
       </c>
@@ -3382,7 +3384,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>39286</v>
       </c>
@@ -3402,7 +3404,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>39295</v>
       </c>
@@ -3422,7 +3424,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>39326</v>
       </c>
@@ -3442,7 +3444,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>39356</v>
       </c>
@@ -3462,7 +3464,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>39387</v>
       </c>
@@ -3482,7 +3484,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>39417</v>
       </c>
@@ -3502,7 +3504,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>77</v>
       </c>
@@ -3524,7 +3526,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>39448</v>
       </c>
@@ -3544,7 +3546,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>39479</v>
       </c>
@@ -3564,7 +3566,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>39508</v>
       </c>
@@ -3584,7 +3586,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>39539</v>
       </c>
@@ -3604,7 +3606,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>39569</v>
       </c>
@@ -3624,7 +3626,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>39600</v>
       </c>
@@ -3644,7 +3646,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>39630</v>
       </c>
@@ -3664,7 +3666,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>39661</v>
       </c>
@@ -3684,7 +3686,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>39692</v>
       </c>
@@ -3704,7 +3706,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>39722</v>
       </c>
@@ -3724,7 +3726,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>39753</v>
       </c>
@@ -3744,7 +3746,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>39783</v>
       </c>
@@ -3768,7 +3770,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
         <v>78</v>
       </c>
@@ -3790,7 +3792,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>39814</v>
       </c>
@@ -3810,7 +3812,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>39845</v>
       </c>
@@ -3830,7 +3832,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>39873</v>
       </c>
@@ -3854,7 +3856,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>48</v>
@@ -3871,7 +3873,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>48</v>
@@ -3888,7 +3890,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>39904</v>
       </c>
@@ -3908,7 +3910,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>39934</v>
       </c>
@@ -3928,7 +3930,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>39965</v>
       </c>
@@ -3948,7 +3950,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>39995</v>
       </c>
@@ -3968,7 +3970,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>40026</v>
       </c>
@@ -3994,7 +3996,7 @@
         <v>40078</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>91</v>
@@ -4011,7 +4013,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>40057</v>
       </c>
@@ -4035,7 +4037,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>40087</v>
       </c>
@@ -4061,7 +4063,7 @@
         <v>40093</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>93</v>
@@ -4078,7 +4080,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="48"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>40118</v>
       </c>
@@ -4104,7 +4106,7 @@
         <v>40127</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
         <v>47</v>
@@ -4126,7 +4128,7 @@
         <v>40130</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>94</v>
@@ -4146,7 +4148,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>40148</v>
       </c>
@@ -4172,7 +4174,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="20" t="s">
         <v>47</v>
@@ -4194,7 +4196,7 @@
         <v>40156</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>95</v>
@@ -4214,7 +4216,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
         <v>79</v>
       </c>
@@ -4236,7 +4238,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>40179</v>
       </c>
@@ -4262,7 +4264,7 @@
         <v>40205</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
         <v>97</v>
@@ -4282,7 +4284,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>40210</v>
       </c>
@@ -4308,7 +4310,7 @@
         <v>40219</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>98</v>
@@ -4330,7 +4332,7 @@
         <v>40233</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
         <v>51</v>
@@ -4350,7 +4352,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>99</v>
@@ -4370,7 +4372,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>40238</v>
       </c>
@@ -4396,7 +4398,7 @@
         <v>40261</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
         <v>100</v>
@@ -4416,7 +4418,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>40269</v>
       </c>
@@ -4442,7 +4444,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>47</v>
@@ -4464,7 +4466,7 @@
         <v>40284</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>47</v>
@@ -4486,7 +4488,7 @@
         <v>40303</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>48</v>
@@ -4506,7 +4508,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>105</v>
@@ -4523,7 +4525,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>40299</v>
       </c>
@@ -4547,7 +4549,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>40330</v>
       </c>
@@ -4571,7 +4573,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>40360</v>
       </c>
@@ -4595,7 +4597,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>40391</v>
       </c>
@@ -4621,7 +4623,7 @@
         <v>40401</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>109</v>
@@ -4641,7 +4643,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>40422</v>
       </c>
@@ -4667,7 +4669,7 @@
         <v>40443</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>47</v>
@@ -4689,7 +4691,7 @@
         <v>40448</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>110</v>
@@ -4709,7 +4711,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>40452</v>
       </c>
@@ -4735,7 +4737,7 @@
         <v>40455</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>111</v>
@@ -4755,7 +4757,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>40483</v>
       </c>
@@ -4781,7 +4783,7 @@
         <v>40506</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>112</v>
@@ -4801,7 +4803,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>40513</v>
       </c>
@@ -4825,7 +4827,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="47" t="s">
         <v>80</v>
       </c>
@@ -4847,7 +4849,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>40544</v>
       </c>
@@ -4873,7 +4875,7 @@
         <v>40564</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>114</v>
@@ -4893,7 +4895,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>40575</v>
       </c>
@@ -4919,7 +4921,7 @@
         <v>40585</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
         <v>64</v>
@@ -4941,7 +4943,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>49</v>
@@ -4960,7 +4962,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>117</v>
@@ -4977,7 +4979,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>40603</v>
       </c>
@@ -5003,7 +5005,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>48</v>
@@ -5023,7 +5025,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23"/>
       <c r="B87" s="20" t="s">
         <v>118</v>
@@ -5043,7 +5045,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>40634</v>
       </c>
@@ -5069,7 +5071,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>47</v>
@@ -5091,7 +5093,7 @@
         <v>40641</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
       <c r="B90" s="20" t="s">
         <v>47</v>
@@ -5113,7 +5115,7 @@
         <v>40653</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>47</v>
@@ -5135,7 +5137,7 @@
         <v>40661</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>119</v>
@@ -5155,7 +5157,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>40664</v>
       </c>
@@ -5181,7 +5183,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>120</v>
@@ -5201,7 +5203,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>40695</v>
       </c>
@@ -5227,7 +5229,7 @@
         <v>40702</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>121</v>
@@ -5247,7 +5249,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>40725</v>
       </c>
@@ -5273,7 +5275,7 @@
         <v>40732</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>47</v>
@@ -5295,7 +5297,7 @@
         <v>40737</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>122</v>
@@ -5315,7 +5317,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>40756</v>
       </c>
@@ -5341,7 +5343,7 @@
         <v>40767</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>48</v>
@@ -5361,7 +5363,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>123</v>
@@ -5381,7 +5383,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>40787</v>
       </c>
@@ -5407,7 +5409,7 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>128</v>
@@ -5427,7 +5429,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="48"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>40817</v>
       </c>
@@ -5453,7 +5455,7 @@
         <v>40821</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>49</v>
@@ -5475,7 +5477,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23"/>
       <c r="B107" s="20" t="s">
         <v>129</v>
@@ -5495,7 +5497,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>40848</v>
       </c>
@@ -5521,7 +5523,7 @@
         <v>40870</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>130</v>
@@ -5541,7 +5543,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>40878</v>
       </c>
@@ -5567,7 +5569,7 @@
         <v>40891</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>47</v>
@@ -5589,7 +5591,7 @@
         <v>40904</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>131</v>
@@ -5609,7 +5611,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="47" t="s">
         <v>81</v>
       </c>
@@ -5631,7 +5633,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>40909</v>
       </c>
@@ -5657,7 +5659,7 @@
         <v>40925</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>133</v>
@@ -5674,7 +5676,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>40940</v>
       </c>
@@ -5700,7 +5702,7 @@
         <v>40954</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>134</v>
@@ -5720,7 +5722,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>135</v>
@@ -5740,7 +5742,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>40969</v>
       </c>
@@ -5766,7 +5768,7 @@
         <v>40988</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>136</v>
@@ -5786,7 +5788,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>41000</v>
       </c>
@@ -5812,7 +5814,7 @@
         <v>41018</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>49</v>
@@ -5834,7 +5836,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>137</v>
@@ -5854,7 +5856,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>41030</v>
       </c>
@@ -5880,7 +5882,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>140</v>
@@ -5897,7 +5899,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>41061</v>
       </c>
@@ -5921,7 +5923,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <v>41091</v>
       </c>
@@ -5947,7 +5949,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>142</v>
@@ -5967,7 +5969,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>41122</v>
       </c>
@@ -5993,7 +5995,7 @@
         <v>41145</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>143</v>
@@ -6013,7 +6015,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>41153</v>
       </c>
@@ -6039,7 +6041,7 @@
         <v>41172</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>144</v>
@@ -6059,7 +6061,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>41183</v>
       </c>
@@ -6085,7 +6087,7 @@
         <v>41205</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>145</v>
@@ -6105,7 +6107,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>41214</v>
       </c>
@@ -6129,7 +6131,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>41244</v>
       </c>
@@ -6155,7 +6157,7 @@
         <v>41255</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>147</v>
@@ -6177,7 +6179,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>98</v>
@@ -6197,7 +6199,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>148</v>
@@ -6214,7 +6216,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="47" t="s">
         <v>82</v>
       </c>
@@ -6236,7 +6238,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>41275</v>
       </c>
@@ -6262,7 +6264,7 @@
         <v>41297</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>41306</v>
       </c>
@@ -6288,7 +6290,7 @@
         <v>41327</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>48</v>
@@ -6308,7 +6310,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>41334</v>
       </c>
@@ -6334,7 +6336,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>41365</v>
       </c>
@@ -6360,7 +6362,7 @@
         <v>41381</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>41395</v>
       </c>
@@ -6386,7 +6388,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>41426</v>
       </c>
@@ -6406,7 +6408,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>41456</v>
       </c>
@@ -6432,7 +6434,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>48</v>
@@ -6452,7 +6454,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>41487</v>
       </c>
@@ -6478,7 +6480,7 @@
         <v>41498</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>41518</v>
       </c>
@@ -6504,7 +6506,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>47</v>
@@ -6526,7 +6528,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>41548</v>
       </c>
@@ -6552,7 +6554,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>41579</v>
       </c>
@@ -6572,7 +6574,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>41609</v>
       </c>
@@ -6598,7 +6600,7 @@
         <v>41619</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>101</v>
@@ -6620,7 +6622,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>47</v>
@@ -6642,7 +6644,7 @@
         <v>41626</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="47" t="s">
         <v>83</v>
       </c>
@@ -6664,7 +6666,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>41640</v>
       </c>
@@ -6690,7 +6692,7 @@
         <v>41294</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>47</v>
@@ -6712,7 +6714,7 @@
         <v>41682</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>160</v>
@@ -6732,7 +6734,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>41671</v>
       </c>
@@ -6758,7 +6760,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>48</v>
@@ -6776,7 +6778,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>161</v>
@@ -6796,7 +6798,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>41699</v>
       </c>
@@ -6820,7 +6822,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>157</v>
@@ -6842,7 +6844,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>47</v>
@@ -6864,7 +6866,7 @@
         <v>41715</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>49</v>
@@ -6886,7 +6888,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>162</v>
@@ -6906,7 +6908,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>41730</v>
       </c>
@@ -6932,7 +6934,7 @@
         <v>41737</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>157</v>
@@ -6954,7 +6956,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>163</v>
@@ -6974,7 +6976,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>41760</v>
       </c>
@@ -7000,7 +7002,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>47</v>
@@ -7022,7 +7024,7 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>101</v>
@@ -7044,7 +7046,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>49</v>
@@ -7066,7 +7068,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>47</v>
@@ -7088,7 +7090,7 @@
         <v>41796</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>164</v>
@@ -7108,7 +7110,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>41791</v>
       </c>
@@ -7132,7 +7134,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <v>41821</v>
       </c>
@@ -7158,7 +7160,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>47</v>
@@ -7177,7 +7179,7 @@
         <v>41843</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>174</v>
@@ -7194,7 +7196,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>41852</v>
       </c>
@@ -7220,7 +7222,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>47</v>
@@ -7239,7 +7241,7 @@
         <v>41864</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>175</v>
@@ -7256,7 +7258,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>41883</v>
       </c>
@@ -7282,7 +7284,7 @@
         <v>41885</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>47</v>
@@ -7301,7 +7303,7 @@
         <v>41906</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>176</v>
@@ -7318,7 +7320,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>41913</v>
       </c>
@@ -7344,7 +7346,7 @@
         <v>41934</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>177</v>
@@ -7361,7 +7363,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>41944</v>
       </c>
@@ -7387,7 +7389,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>178</v>
@@ -7404,7 +7406,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <v>41974</v>
       </c>
@@ -7430,7 +7432,7 @@
         <v>41982</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>179</v>
@@ -7447,7 +7449,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="47" t="s">
         <v>84</v>
       </c>
@@ -7469,7 +7471,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>42005</v>
       </c>
@@ -7495,7 +7497,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>181</v>
@@ -7515,7 +7517,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>42036</v>
       </c>
@@ -7541,7 +7543,7 @@
         <v>42036</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>48</v>
@@ -7561,7 +7563,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>184</v>
@@ -7581,7 +7583,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>42064</v>
       </c>
@@ -7607,7 +7609,7 @@
         <v>42088</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>185</v>
@@ -7627,7 +7629,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>42095</v>
       </c>
@@ -7653,7 +7655,7 @@
         <v>42114</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>186</v>
@@ -7673,7 +7675,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <v>42125</v>
       </c>
@@ -7699,7 +7701,7 @@
         <v>42130</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>47</v>
@@ -7721,7 +7723,7 @@
         <v>42135</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>49</v>
@@ -7743,7 +7745,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>187</v>
@@ -7763,7 +7765,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <v>42156</v>
       </c>
@@ -7789,7 +7791,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>188</v>
@@ -7809,7 +7811,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>42186</v>
       </c>
@@ -7835,7 +7837,7 @@
         <v>42187</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>53</v>
@@ -7857,7 +7859,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>47</v>
@@ -7879,7 +7881,7 @@
         <v>42209</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>49</v>
@@ -7901,7 +7903,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>189</v>
@@ -7921,7 +7923,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>42217</v>
       </c>
@@ -7947,7 +7949,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>190</v>
@@ -7967,7 +7969,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>42248</v>
       </c>
@@ -7991,7 +7993,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>191</v>
@@ -8011,7 +8013,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>42278</v>
       </c>
@@ -8037,7 +8039,7 @@
         <v>42283</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>47</v>
@@ -8059,7 +8061,7 @@
         <v>42289</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>49</v>
@@ -8081,7 +8083,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>64</v>
@@ -8100,7 +8102,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>73</v>
@@ -8119,7 +8121,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>199</v>
@@ -8136,7 +8138,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <v>42309</v>
       </c>
@@ -8162,7 +8164,7 @@
         <v>42321</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>47</v>
@@ -8181,7 +8183,7 @@
         <v>42332</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>73</v>
@@ -8200,7 +8202,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>200</v>
@@ -8217,7 +8219,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>42339</v>
       </c>
@@ -8243,7 +8245,7 @@
         <v>42356</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>201</v>
@@ -8260,7 +8262,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="47" t="s">
         <v>85</v>
       </c>
@@ -8282,7 +8284,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <v>42370</v>
       </c>
@@ -8302,7 +8304,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <v>42401</v>
       </c>
@@ -8328,7 +8330,7 @@
         <v>42416</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>47</v>
@@ -8345,7 +8347,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>48</v>
@@ -8362,7 +8364,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>42430</v>
       </c>
@@ -8388,7 +8390,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <v>42461</v>
       </c>
@@ -8412,7 +8414,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <v>42491</v>
       </c>
@@ -8438,7 +8440,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>47</v>
@@ -8460,7 +8462,7 @@
         <v>42509</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <v>42522</v>
       </c>
@@ -8486,7 +8488,7 @@
         <v>42524</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>47</v>
@@ -8508,7 +8510,7 @@
         <v>42530</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>47</v>
@@ -8530,7 +8532,7 @@
         <v>42551</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>42552</v>
       </c>
@@ -8554,7 +8556,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <v>42583</v>
       </c>
@@ -8580,7 +8582,7 @@
         <v>42612</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <v>42614</v>
       </c>
@@ -8606,7 +8608,7 @@
         <v>42634</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <v>42644</v>
       </c>
@@ -8632,7 +8634,7 @@
         <v>42662</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>47</v>
@@ -8654,7 +8656,7 @@
         <v>42683</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <v>42675</v>
       </c>
@@ -8680,7 +8682,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>47</v>
@@ -8702,7 +8704,7 @@
         <v>42712</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>42705</v>
       </c>
@@ -8726,7 +8728,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="47" t="s">
         <v>86</v>
       </c>
@@ -8748,7 +8750,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>42736</v>
       </c>
@@ -8774,7 +8776,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>73</v>
@@ -8796,7 +8798,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>42767</v>
       </c>
@@ -8816,7 +8818,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <v>42795</v>
       </c>
@@ -8840,7 +8842,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>47</v>
@@ -8862,7 +8864,7 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>47</v>
@@ -8884,7 +8886,7 @@
         <v>42830</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>42826</v>
       </c>
@@ -8910,7 +8912,7 @@
         <v>42852</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>47</v>
@@ -8932,7 +8934,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <v>42856</v>
       </c>
@@ -8952,7 +8954,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>42887</v>
       </c>
@@ -8972,7 +8974,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <v>42917</v>
       </c>
@@ -8996,7 +8998,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>42948</v>
       </c>
@@ -9016,7 +9018,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <v>42979</v>
       </c>
@@ -9036,7 +9038,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>43009</v>
       </c>
@@ -9056,7 +9058,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <v>43040</v>
       </c>
@@ -9082,7 +9084,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>47</v>
@@ -9101,7 +9103,7 @@
         <v>43082</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>48</v>
@@ -9118,7 +9120,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <v>43070</v>
       </c>
@@ -9138,7 +9140,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="47" t="s">
         <v>46</v>
       </c>
@@ -9160,7 +9162,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>43101</v>
       </c>
@@ -9186,7 +9188,7 @@
         <v>43115</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>43132</v>
       </c>
@@ -9212,7 +9214,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>43160</v>
       </c>
@@ -9236,7 +9238,7 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>43191</v>
       </c>
@@ -9262,7 +9264,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>43221</v>
       </c>
@@ -9282,7 +9284,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>43252</v>
       </c>
@@ -9302,7 +9304,7 @@
       <c r="J277" s="12"/>
       <c r="K277" s="15"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>43282</v>
       </c>
@@ -9322,7 +9324,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>43313</v>
       </c>
@@ -9342,7 +9344,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>43344</v>
       </c>
@@ -9366,7 +9368,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>47</v>
@@ -9388,7 +9390,7 @@
         <v>43360</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>43374</v>
       </c>
@@ -9414,7 +9416,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>43405</v>
       </c>
@@ -9434,7 +9436,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>43435</v>
       </c>
@@ -9454,7 +9456,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="47" t="s">
         <v>55</v>
       </c>
@@ -9472,7 +9474,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>43466</v>
       </c>
@@ -9498,7 +9500,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>43497</v>
       </c>
@@ -9518,7 +9520,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>43525</v>
       </c>
@@ -9538,7 +9540,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>43556</v>
       </c>
@@ -9558,7 +9560,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>43586</v>
       </c>
@@ -9584,7 +9586,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>48</v>
@@ -9604,7 +9606,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>43617</v>
       </c>
@@ -9624,7 +9626,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>43647</v>
       </c>
@@ -9650,7 +9652,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>43678</v>
       </c>
@@ -9670,7 +9672,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>43709</v>
       </c>
@@ -9690,7 +9692,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>43739</v>
       </c>
@@ -9710,7 +9712,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>43770</v>
       </c>
@@ -9730,7 +9732,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>43800</v>
       </c>
@@ -9756,7 +9758,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>47</v>
@@ -9778,7 +9780,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="47" t="s">
         <v>60</v>
       </c>
@@ -9796,7 +9798,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>43831</v>
       </c>
@@ -9816,7 +9818,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>43862</v>
       </c>
@@ -9836,7 +9838,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>43891</v>
       </c>
@@ -9856,7 +9858,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>43922</v>
       </c>
@@ -9876,7 +9878,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>43952</v>
       </c>
@@ -9896,7 +9898,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>43983</v>
       </c>
@@ -9916,7 +9918,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>44013</v>
       </c>
@@ -9936,7 +9938,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>44044</v>
       </c>
@@ -9956,7 +9958,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>44075</v>
       </c>
@@ -9982,7 +9984,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>48</v>
@@ -10002,7 +10004,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>44105</v>
       </c>
@@ -10022,7 +10024,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>44136</v>
       </c>
@@ -10042,7 +10044,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>44166</v>
       </c>
@@ -10066,7 +10068,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="47" t="s">
         <v>61</v>
       </c>
@@ -10084,7 +10086,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>44197</v>
       </c>
@@ -10104,7 +10106,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>44228</v>
       </c>
@@ -10124,7 +10126,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>44256</v>
       </c>
@@ -10144,7 +10146,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>44287</v>
       </c>
@@ -10164,7 +10166,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>44317</v>
       </c>
@@ -10184,7 +10186,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>44348</v>
       </c>
@@ -10204,7 +10206,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>44378</v>
       </c>
@@ -10224,7 +10226,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>44409</v>
       </c>
@@ -10244,7 +10246,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>44440</v>
       </c>
@@ -10264,7 +10266,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>44470</v>
       </c>
@@ -10284,7 +10286,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>44501</v>
       </c>
@@ -10304,7 +10306,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>44531</v>
       </c>
@@ -10330,7 +10332,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="47" t="s">
         <v>63</v>
       </c>
@@ -10348,7 +10350,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>44562</v>
       </c>
@@ -10368,7 +10370,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>44593</v>
       </c>
@@ -10388,7 +10390,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>44621</v>
       </c>
@@ -10410,7 +10412,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>110</v>
@@ -10430,7 +10432,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>44652</v>
       </c>
@@ -10454,7 +10456,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>44682</v>
       </c>
@@ -10480,7 +10482,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>66</v>
@@ -10502,7 +10504,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>218</v>
@@ -10524,7 +10526,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>225</v>
@@ -10544,7 +10546,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>44713</v>
       </c>
@@ -10570,7 +10572,7 @@
         <v>44718</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>223</v>
@@ -10590,7 +10592,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="48"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>44743</v>
       </c>
@@ -10616,7 +10618,7 @@
         <v>44748</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>222</v>
@@ -10636,7 +10638,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="48"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>44774</v>
       </c>
@@ -10662,7 +10664,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>220</v>
@@ -10682,7 +10684,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>44805</v>
       </c>
@@ -10708,7 +10710,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>68</v>
@@ -10730,7 +10732,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>44835</v>
       </c>
@@ -10756,7 +10758,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>217</v>
@@ -10776,7 +10778,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>44866</v>
       </c>
@@ -10802,7 +10804,7 @@
         <v>44889</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>216</v>
@@ -10822,7 +10824,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="48"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>44896</v>
       </c>
@@ -10848,7 +10850,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>47</v>
@@ -10870,7 +10872,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>47</v>
@@ -10892,7 +10894,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>215</v>
@@ -10912,7 +10914,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="48"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="47" t="s">
         <v>72</v>
       </c>
@@ -10930,7 +10932,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>44927</v>
       </c>
@@ -10956,7 +10958,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>47</v>
@@ -10978,7 +10980,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>44958</v>
       </c>
@@ -11004,7 +11006,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>47</v>
@@ -11026,7 +11028,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44986</v>
       </c>
@@ -11050,7 +11052,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>45017</v>
       </c>
@@ -11070,7 +11072,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>45047</v>
       </c>
@@ -11096,7 +11098,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>47</v>
@@ -11118,7 +11120,7 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>45078</v>
       </c>
@@ -11144,7 +11146,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>45108</v>
       </c>
@@ -11170,7 +11172,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>47</v>
@@ -11192,7 +11194,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>47</v>
@@ -11214,7 +11216,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>45139</v>
       </c>
@@ -11240,7 +11242,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>49</v>
@@ -11262,7 +11264,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>45170</v>
       </c>
@@ -11288,7 +11290,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>45200</v>
       </c>
@@ -11314,7 +11316,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>45231</v>
       </c>
@@ -11340,7 +11342,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>48</v>
@@ -11360,22 +11362,24 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>45261</v>
       </c>
       <c r="B372" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C372" s="13"/>
+      <c r="C372" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D372" s="39">
         <v>2</v>
       </c>
       <c r="E372" s="9"/>
       <c r="F372" s="20"/>
-      <c r="G372" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G372" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H372" s="39"/>
       <c r="I372" s="9"/>
@@ -11384,7 +11388,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>68</v>
@@ -11406,7 +11410,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="47" t="s">
         <v>231</v>
       </c>
@@ -11424,11 +11428,13 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>45292</v>
       </c>
-      <c r="B375" s="20"/>
+      <c r="B375" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C375" s="13"/>
       <c r="D375" s="39"/>
       <c r="E375" s="9"/>
@@ -11437,12 +11443,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H375" s="39"/>
+      <c r="H375" s="39">
+        <v>2</v>
+      </c>
       <c r="I375" s="9"/>
       <c r="J375" s="11"/>
-      <c r="K375" s="20"/>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K375" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>45323</v>
       </c>
@@ -11460,7 +11470,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>45352</v>
       </c>
@@ -11478,7 +11488,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>45383</v>
       </c>
@@ -11496,7 +11506,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>45413</v>
       </c>
@@ -11514,7 +11524,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>45444</v>
       </c>
@@ -11532,7 +11542,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>45474</v>
       </c>
@@ -11550,7 +11560,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>45505</v>
       </c>
@@ -11568,7 +11578,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>45536</v>
       </c>
@@ -11586,7 +11596,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>45566</v>
       </c>
@@ -11604,7 +11614,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>45597</v>
       </c>
@@ -11622,7 +11632,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>45627</v>
       </c>
@@ -11640,7 +11650,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>45658</v>
       </c>
@@ -11658,7 +11668,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>45689</v>
       </c>
@@ -11676,7 +11686,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>45717</v>
       </c>
@@ -11694,7 +11704,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>45748</v>
       </c>
@@ -11712,7 +11722,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>45778</v>
       </c>
@@ -11730,7 +11740,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>45809</v>
       </c>
@@ -11748,7 +11758,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>45839</v>
       </c>
@@ -11766,7 +11776,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>45870</v>
       </c>
@@ -11784,7 +11794,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>45901</v>
       </c>
@@ -11802,7 +11812,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>45931</v>
       </c>
@@ -11820,7 +11830,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>45962</v>
       </c>
@@ -11838,7 +11848,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>45992</v>
       </c>
@@ -11856,7 +11866,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>46023</v>
       </c>
@@ -11874,7 +11884,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>46054</v>
       </c>
@@ -11892,7 +11902,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>46082</v>
       </c>
@@ -11910,7 +11920,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>46113</v>
       </c>
@@ -11928,7 +11938,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>46143</v>
       </c>
@@ -11946,7 +11956,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>46174</v>
       </c>
@@ -11964,7 +11974,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>46204</v>
       </c>
@@ -11982,7 +11992,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>46235</v>
       </c>
@@ -12000,7 +12010,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>46266</v>
       </c>
@@ -12018,7 +12028,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>46296</v>
       </c>
@@ -12036,7 +12046,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>46327</v>
       </c>
@@ -12054,7 +12064,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>46357</v>
       </c>
@@ -12072,7 +12082,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>46388</v>
       </c>
@@ -12090,7 +12100,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>46419</v>
       </c>
@@ -12108,7 +12118,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>46447</v>
       </c>
@@ -12141,10 +12151,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12167,28 +12177,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -12201,7 +12211,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12230,7 +12240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -12254,17 +12264,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12285,7 +12295,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12312,7 +12322,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12338,7 +12348,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12364,7 +12374,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12390,7 +12400,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12416,7 +12426,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12442,7 +12452,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12468,7 +12478,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12494,7 +12504,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12514,7 +12524,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12534,7 +12544,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12554,7 +12564,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12575,7 +12585,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12596,7 +12606,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12617,7 +12627,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12638,7 +12648,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12659,7 +12669,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12680,7 +12690,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12701,7 +12711,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12722,7 +12732,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12743,7 +12753,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12764,7 +12774,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12785,7 +12795,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12806,7 +12816,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12827,7 +12837,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12848,7 +12858,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12869,7 +12879,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12890,7 +12900,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12911,7 +12921,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12932,7 +12942,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12953,7 +12963,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12974,7 +12984,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12983,7 +12993,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12992,7 +13002,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13001,7 +13011,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13010,7 +13020,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13019,7 +13029,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13028,7 +13038,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13037,7 +13047,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13046,7 +13056,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13055,7 +13065,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13064,7 +13074,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13073,7 +13083,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13082,7 +13092,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13091,7 +13101,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13100,7 +13110,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13109,7 +13119,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13118,7 +13128,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13127,7 +13137,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13136,7 +13146,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13145,7 +13155,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13154,7 +13164,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13163,7 +13173,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13172,7 +13182,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13181,7 +13191,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13190,7 +13200,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13199,7 +13209,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13208,7 +13218,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13217,7 +13227,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13226,7 +13236,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13235,7 +13245,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/SP-VMO/MANALO, ELIADA.xlsx
+++ b/REGULAR/SP-VMO/MANALO, ELIADA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="235">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1435,7 +1435,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1478,7 +1478,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1542,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1602,7 +1602,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1668,7 +1668,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1731,7 +1731,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1829,7 +1829,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1888,7 +1888,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,7 +1953,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +1996,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,7 +2071,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2257,7 +2257,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2323,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2381,7 +2381,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2447,7 +2447,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2503,7 +2503,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2578,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2621,7 +2621,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2687,7 +2687,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +2743,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2839,7 +2839,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K413" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K414" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3186,12 +3186,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K413"/>
+  <dimension ref="A2:K414"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A362" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F378" sqref="F378"/>
+      <selection pane="bottomLeft" activeCell="H372" sqref="H372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3354,7 +3354,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>61.078000000000031</v>
+        <v>62.328000000000031</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3364,7 +3364,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>71.5</v>
+        <v>71.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11435,13 +11435,15 @@
       <c r="B375" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C375" s="13"/>
+      <c r="C375" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D375" s="39"/>
       <c r="E375" s="9"/>
       <c r="F375" s="20"/>
-      <c r="G375" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G375" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H375" s="39">
         <v>2</v>
@@ -11453,10 +11455,10 @@
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A376" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B376" s="20"/>
+      <c r="A376" s="40"/>
+      <c r="B376" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C376" s="13"/>
       <c r="D376" s="39"/>
       <c r="E376" s="9"/>
@@ -11465,14 +11467,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H376" s="39"/>
+      <c r="H376" s="39">
+        <v>1</v>
+      </c>
       <c r="I376" s="9"/>
       <c r="J376" s="11"/>
-      <c r="K376" s="20"/>
+      <c r="K376" s="48">
+        <v>45321</v>
+      </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -11490,7 +11496,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -11508,7 +11514,7 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -11526,7 +11532,7 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -11544,7 +11550,7 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -11562,7 +11568,7 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -11580,7 +11586,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -11598,7 +11604,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -11616,7 +11622,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -11634,7 +11640,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -11652,7 +11658,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -11670,7 +11676,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -11688,7 +11694,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -11706,7 +11712,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -11724,7 +11730,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -11742,7 +11748,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -11760,7 +11766,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -11778,7 +11784,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -11796,7 +11802,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -11814,7 +11820,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -11832,7 +11838,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -11850,7 +11856,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -11868,7 +11874,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -11886,7 +11892,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -11904,7 +11910,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -11922,7 +11928,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -11940,7 +11946,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -11958,7 +11964,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -11976,7 +11982,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -11994,7 +12000,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -12012,7 +12018,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -12030,7 +12036,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -12048,7 +12054,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -12066,7 +12072,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -12084,7 +12090,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -12102,7 +12108,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -12120,21 +12126,39 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
-      <c r="D413" s="42"/>
+      <c r="D413" s="39"/>
       <c r="E413" s="9"/>
-      <c r="F413" s="15"/>
-      <c r="G413" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H413" s="42"/>
+      <c r="F413" s="20"/>
+      <c r="G413" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H413" s="39"/>
       <c r="I413" s="9"/>
-      <c r="J413" s="12"/>
-      <c r="K413" s="15"/>
+      <c r="J413" s="11"/>
+      <c r="K413" s="20"/>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A414" s="40">
+        <v>46447</v>
+      </c>
+      <c r="B414" s="20"/>
+      <c r="C414" s="13"/>
+      <c r="D414" s="42"/>
+      <c r="E414" s="9"/>
+      <c r="F414" s="15"/>
+      <c r="G414" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H414" s="42"/>
+      <c r="I414" s="9"/>
+      <c r="J414" s="12"/>
+      <c r="K414" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
